--- a/Output/Question level AO Analytics.xlsx
+++ b/Output/Question level AO Analytics.xlsx
@@ -27,48 +27,48 @@
     <t>category</t>
   </si>
   <si>
+    <t>Defective/damaged tools are moved to the RED TAG AREA and removed from service.</t>
+  </si>
+  <si>
+    <t>Tools and Materials</t>
+  </si>
+  <si>
+    <t>If a pallet jack is not in use, the forks are stored under a pallet and lowered to the ground with the handle in the locked (turned) position.</t>
+  </si>
+  <si>
     <t>Are only the required materials and tools located at or near the work area or workstation and have all unnecessary materials, tools, and clutter been removed?</t>
   </si>
   <si>
-    <t>Tools and Materials</t>
-  </si>
-  <si>
-    <t>If a pallet jack is not in use, the forks are stored under a pallet and lowered to the ground with the handle in the locked (turned) position.</t>
-  </si>
-  <si>
-    <t>Defective/damaged tools are moved to the RED TAG AREA and removed from service.</t>
+    <t>Are the floor markings, AO signs and labels in the area in good condition to support proper process flow?</t>
+  </si>
+  <si>
+    <t>Signs and Marking</t>
   </si>
   <si>
     <t>Are all trash receptacles designated by YELLOW floor markings and """"TRASH ONLY"""" signs?</t>
   </si>
   <si>
-    <t>Signs and Marking</t>
+    <t>Are the required areas defined as Free from Obstruction designated with YELLOW AND BLACK "ZEBRA" floor markings? Are these areas free from any other materials or clutter?</t>
   </si>
   <si>
     <t>Are all inventory and non-inventory materials designated by BLUE floor markings and signs (where required)?</t>
   </si>
   <si>
-    <t>Are the floor markings, AO signs and labels in the area in good condition to support proper process flow?</t>
-  </si>
-  <si>
-    <t>Are the required areas defined as Free from Obstruction designated with YELLOW AND BLACK "ZEBRA" floor markings? Are these areas free from any other materials or clutter?</t>
+    <t>Product not to be overhung more than one badge length</t>
+  </si>
+  <si>
+    <t>Product Storage</t>
+  </si>
+  <si>
+    <t>Do the rack aisles and/or library aisles in the area exhibiting proper standards of bin etiquette for product storage?</t>
+  </si>
+  <si>
+    <t>Are all items being stored in designated locations?</t>
   </si>
   <si>
     <t>Do all carts, cages, totes, and pallets have a designated location, empties and full, for a safe process flow?</t>
   </si>
   <si>
-    <t>Product Storage</t>
-  </si>
-  <si>
-    <t>Are all items being stored in designated locations?</t>
-  </si>
-  <si>
-    <t>Product not to be overhung more than one badge length</t>
-  </si>
-  <si>
-    <t>Do the rack aisles and/or library aisles in the area exhibiting proper standards of bin etiquette for product storage?</t>
-  </si>
-  <si>
     <t>Throughout the zone, are all unnecessary items removed from the area?</t>
   </si>
   <si>
@@ -84,106 +84,106 @@
     <t>Emergency Response</t>
   </si>
   <si>
+    <t>Is the organization of the area free of any hazards that may pose a risk to associates?</t>
+  </si>
+  <si>
+    <t>Design &amp; Organisation</t>
+  </si>
+  <si>
     <t>Is the design of the equipment free of hazards that may pose a risk associates?</t>
   </si>
   <si>
-    <t>Design &amp; Organisation</t>
-  </si>
-  <si>
-    <t>Is the organization of the area free of any hazards that may pose a risk to associates?</t>
-  </si>
-  <si>
     <t>category_name</t>
   </si>
   <si>
     <t>action_title</t>
   </si>
   <si>
+    <t>Remover ASINs dos bin P-2-S128M341 e P-2-S144k646 que são maiores que o bin e fazer transferência</t>
+  </si>
+  <si>
+    <t>Refazer demarcações dos buffers ao lado da linha 8 com tamanho para suportar carrinhos de Rebin,</t>
+  </si>
+  <si>
+    <t>Fix electrical issues and evaluate the best option to support process</t>
+  </si>
+  <si>
+    <t>Mencionar no Stand up a dica de segurança """" Sempre que não estiver fazendo uso do paleteira manual ela deve estar em baixo de um palete e com a alça na posição trancada""""</t>
+  </si>
+  <si>
+    <t>Realocar</t>
+  </si>
+  <si>
+    <t>Arrumar os 2 bebedouros que estão quebrados e vazando no P-2-S (remover o balde assim que concluído)</t>
+  </si>
+  <si>
+    <t>Remover materias da doca do IB</t>
+  </si>
+  <si>
+    <t>Fixar a placa do hidrante novamente na parede</t>
+  </si>
+  <si>
+    <t>Fazer demarcações para totes vazios nas estações de single</t>
+  </si>
+  <si>
+    <t>Fazer demarcação amarela para skutles de lixo</t>
+  </si>
+  <si>
     <t>Refoçar com os AAs a regra de estável, para que se o item cair, caia para dentro do bin. Ajustar posição P-2-S119M400</t>
   </si>
   <si>
+    <t>Mover carrinhos para demarcação ou realizar demarcação dos carrinhos. Reforçar com AAs para manter os carrinhos na demarcação</t>
+  </si>
+  <si>
+    <t>Fazer demarcações para as lixeiras da coluna FF05</t>
+  </si>
+  <si>
+    <t>Demarcar buffer de carrinho de ICQA com fita de azul no P-2-S</t>
+  </si>
+  <si>
+    <t>Remover os unifilas e cones próximo ao E-2 rua 139 altura do 200-285</t>
+  </si>
+  <si>
+    <t>Destinar ventiladores</t>
+  </si>
+  <si>
+    <t>Realocar escadas para local correto</t>
+  </si>
+  <si>
+    <t>Paleteira movida para posição correta</t>
+  </si>
+  <si>
+    <t>Verificar placas de piso molhado do Mod E e me enviar a planilha atualizada</t>
+  </si>
+  <si>
+    <t>Cart removido e alocado na área correta.</t>
+  </si>
+  <si>
+    <t>Colocar demarcações nas lixeiras dos armários e escritório ADM</t>
+  </si>
+  <si>
+    <t>O elástico foi retirado</t>
+  </si>
+  <si>
+    <t>Ensure cleaning routine or look for trash instalation</t>
+  </si>
+  <si>
+    <t>Abrir ticket para a manutenção realizar o reparo</t>
+  </si>
+  <si>
+    <t>Remover placas de """"Stow velocidade alta"""" no penultimo corredor proximo ao OB</t>
+  </si>
+  <si>
     <t>Define proper location to store it</t>
   </si>
   <si>
-    <t>Colocar demarcações nas lixeiras dos armários e escritório ADM</t>
+    <t>Fazer demarcação para carrinho de Rebin na estação.</t>
   </si>
   <si>
     <t>Orientar AAs do Pack a manter apenas 1 cart na estação.</t>
   </si>
   <si>
-    <t>Realocar escadas para local correto</t>
-  </si>
-  <si>
-    <t>Fazer demarcação amarela para skutles de lixo</t>
-  </si>
-  <si>
-    <t>Fazer demarcação para carrinho de Rebin na estação.</t>
-  </si>
-  <si>
-    <t>Remover ASINs dos bin P-2-S128M341 e P-2-S144k646 que são maiores que o bin e fazer transferência</t>
-  </si>
-  <si>
-    <t>Demarcar buffer de carrinho de ICQA com fita de azul no P-2-S</t>
-  </si>
-  <si>
-    <t>Realocar</t>
-  </si>
-  <si>
-    <t>Paleteira movida para posição correta</t>
-  </si>
-  <si>
-    <t>Remover os unifilas e cones próximo ao E-2 rua 139 altura do 200-285</t>
-  </si>
-  <si>
-    <t>Refazer demarcações dos buffers ao lado da linha 8 com tamanho para suportar carrinhos de Rebin,</t>
-  </si>
-  <si>
-    <t>Destinar ventiladores</t>
-  </si>
-  <si>
     <t>Mesa movida para area demarcada</t>
-  </si>
-  <si>
-    <t>Fix electrical issues and evaluate the best option to support process</t>
-  </si>
-  <si>
-    <t>Ensure cleaning routine or look for trash instalation</t>
-  </si>
-  <si>
-    <t>Arrumar os 2 bebedouros que estão quebrados e vazando no P-2-S (remover o balde assim que concluído)</t>
-  </si>
-  <si>
-    <t>Remover placas de """"Stow velocidade alta"""" no penultimo corredor proximo ao OB</t>
-  </si>
-  <si>
-    <t>Mover carrinhos para demarcação ou realizar demarcação dos carrinhos. Reforçar com AAs para manter os carrinhos na demarcação</t>
-  </si>
-  <si>
-    <t>Fazer demarcações para totes vazios nas estações de single</t>
-  </si>
-  <si>
-    <t>Mencionar no Stand up a dica de segurança """" Sempre que não estiver fazendo uso do paleteira manual ela deve estar em baixo de um palete e com a alça na posição trancada""""</t>
-  </si>
-  <si>
-    <t>Remover materias da doca do IB</t>
-  </si>
-  <si>
-    <t>Abrir ticket para a manutenção realizar o reparo</t>
-  </si>
-  <si>
-    <t>Fazer demarcações para as lixeiras da coluna FF05</t>
-  </si>
-  <si>
-    <t>Fixar a placa do hidrante novamente na parede</t>
-  </si>
-  <si>
-    <t>Cart removido e alocado na área correta.</t>
-  </si>
-  <si>
-    <t>Verificar placas de piso molhado do Mod E e me enviar a planilha atualizada</t>
-  </si>
-  <si>
-    <t>O elástico foi retirado</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -559,7 +559,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -570,7 +570,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -581,7 +581,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -603,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -614,7 +614,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -647,7 +647,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -691,7 +691,7 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -702,7 +702,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
